--- a/data/trans_dic/P25D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,45</t>
+          <t>0,99; 7,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,09</t>
+          <t>0,0; 5,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,27</t>
+          <t>0,82; 4,19</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,71</t>
+          <t>0,35; 3,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,34</t>
+          <t>0,53; 3,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,7</t>
+          <t>0,67; 2,73</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,71</t>
+          <t>1,06; 3,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,69</t>
+          <t>0,34; 1,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,32</t>
+          <t>0,78; 2,27</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,15; 1,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,62</t>
+          <t>0,44; 1,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,12</t>
+          <t>0,38; 1,18</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,37</t>
+          <t>0,5; 2,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,88</t>
+          <t>0,07; 0,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,37</t>
+          <t>0,37; 1,38</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,65</t>
+          <t>0,0; 0,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,46</t>
+          <t>0,04; 0,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,42</t>
+          <t>0,04; 0,47</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,74</t>
+          <t>0,81; 1,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,05</t>
+          <t>0,47; 1,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,23</t>
+          <t>0,7; 1,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P25D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 7,09</t>
+          <t>0,68; 7,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,14</t>
+          <t>0,0; 5,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,19</t>
+          <t>0,85; 4,27</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,41</t>
+          <t>0,36; 3,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,34</t>
+          <t>0,56; 3,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,73</t>
+          <t>0,72; 2,7</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,94</t>
+          <t>0,97; 3,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,82</t>
+          <t>0,37; 1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,27</t>
+          <t>0,82; 2,32</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,35</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,58</t>
+          <t>0,48; 1,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,18</t>
+          <t>0,34; 1,12</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,33</t>
+          <t>0,51; 2,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,85</t>
+          <t>0,07; 0,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,38</t>
+          <t>0,36; 1,37</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,76</t>
+          <t>0,0; 0,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,45</t>
+          <t>0,04; 0,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,47</t>
+          <t>0,04; 0,42</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,73</t>
+          <t>0,76; 1,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,06</t>
+          <t>0,47; 1,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,23</t>
+          <t>0,67; 1,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P25D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,03%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,45</t>
+          <t>0,69; 7,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,09</t>
+          <t>0,0; 5,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,27</t>
+          <t>0,89; 4,41</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,71</t>
+          <t>0,37; 3,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,34</t>
+          <t>0,42; 2,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,7</t>
+          <t>0,59; 2,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,4%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,71</t>
+          <t>0,96; 3,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,69</t>
+          <t>0,38; 1,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,32</t>
+          <t>0,81; 2,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,58%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,62</t>
+          <t>0,46; 1,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,12</t>
+          <t>0,27; 1,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,37</t>
+          <t>0,49; 2,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,88</t>
+          <t>0,08; 0,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,37</t>
+          <t>0,35; 1,34</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,21%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,65</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,46</t>
+          <t>0,0; 0,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,42</t>
+          <t>0,06; 0,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,05%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,74</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,05</t>
+          <t>0,0; 0,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,23</t>
+          <t>0,0; 0,27</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 1,68</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 0,98</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 1,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P25D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 7,32</t>
+          <t>0,81; 6,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,27</t>
+          <t>0,0; 4,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,41</t>
+          <t>0,77; 4,55</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,41</t>
+          <t>0,38; 3,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,76</t>
+          <t>0,41; 2,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,43</t>
+          <t>0,55; 2,36</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,62</t>
+          <t>0,92; 3,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,64</t>
+          <t>0,33; 1,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,26</t>
+          <t>0,8; 2,4</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,02</t>
+          <t>0,06; 1,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,56</t>
+          <t>0,39; 1,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,03</t>
+          <t>0,26; 1,01</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,3</t>
+          <t>0,47; 2,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,89</t>
+          <t>0,08; 0,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,34</t>
+          <t>0,37; 1,31</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,19</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,84</t>
+          <t>0,0; 0,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,64</t>
+          <t>0,05; 0,62</t>
         </is>
       </c>
     </row>
@@ -884,7 +885,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,53</t>
+          <t>0,0; 0,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,68</t>
+          <t>0,69; 1,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,98</t>
+          <t>0,42; 0,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,16</t>
+          <t>0,63; 1,16</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma diariamente cigarrillos electrónicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10458</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4020</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14478</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3229; 27103</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14048</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5498; 32485</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5527</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6189</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11716</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1602; 13901</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2119; 14758</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5106; 21997</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10707</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4382</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15088</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4922; 19311</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1759; 9513</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8637; 25864</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3230</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5965</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9195</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>535; 9250</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2762; 10633</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4164; 16050</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6626</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1661</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8287</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2647; 12816</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>442; 5428</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4061; 14500</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5654</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3867</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>456; 6042</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1183</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1907</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>37411</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>23740</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>61151</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>23831; 57128</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>15475; 35432</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>44527; 82700</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>